--- a/a.xlsx
+++ b/a.xlsx
@@ -429,10 +429,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>my@qq.com</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -429,8 +429,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>my@qq.com</t>
+        </is>
       </c>
     </row>
   </sheetData>
